--- a/song_hits/my_favorites.xlsx
+++ b/song_hits/my_favorites.xlsx
@@ -1,47 +1,880 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29622"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_8717E6B71ECF562F9023116A4016A4F540A292BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BC8E774-2BA9-4D3E-98AD-0F60169594E7}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="275">
+  <si>
+    <t>Title of Song</t>
+  </si>
+  <si>
+    <t>Name of Artist</t>
+  </si>
+  <si>
+    <t>YouTube URL</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>The Fate of Ophelia</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4RiRGBsdx3E</t>
+  </si>
+  <si>
+    <t>Favorites 2</t>
+  </si>
+  <si>
+    <t>OPALITE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yvJ38hcwHNo</t>
+  </si>
+  <si>
+    <t>Die With A Smile</t>
+  </si>
+  <si>
+    <t>Lady Gaga, Bruno Mars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1--pwdu-eJE</t>
+  </si>
+  <si>
+    <t>I'LL NEVER FALL IN LOVE AGAIN</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4_1tBNA0HX0</t>
+  </si>
+  <si>
+    <t>Favorites 1</t>
+  </si>
+  <si>
+    <t>JUST ONCE</t>
+  </si>
+  <si>
+    <t>James Ingram</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vYYxov5T-VQ</t>
+  </si>
+  <si>
+    <t>HOW CAN I TELL HER</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x0SMymUchOM</t>
+  </si>
+  <si>
+    <t>COUNT ON YOU</t>
+  </si>
+  <si>
+    <t>Tommy Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XGB8gmhwWzU</t>
+  </si>
+  <si>
+    <t>MAYBE THIS TIME</t>
+  </si>
+  <si>
+    <t>Michael Murphy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CyyKmoXBK2Q</t>
+  </si>
+  <si>
+    <t>Can We Talk</t>
+  </si>
+  <si>
+    <t>Tevin Campbell</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iacM6ENsoEw</t>
+  </si>
+  <si>
+    <t>Favorites 3</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Michael Buble</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cNBHGp7aPZ4</t>
+  </si>
+  <si>
+    <t>IKAW</t>
+  </si>
+  <si>
+    <t>Yeng Constantino</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m4EZrJqGXz8</t>
+  </si>
+  <si>
+    <t>Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DIC1AzEgnnw</t>
+  </si>
+  <si>
+    <t>The Way You Look At Me</t>
+  </si>
+  <si>
+    <t>Christian Bautista</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F_8tslaAuIE</t>
+  </si>
+  <si>
+    <t>Stay with me</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o1s0QG5TuK8</t>
+  </si>
+  <si>
+    <t>BREAKING MY HEART</t>
+  </si>
+  <si>
+    <t>Michael Learns To Rock</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W5bn7sj2AWg</t>
+  </si>
+  <si>
+    <t>CRAZY FOR YOU</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lb_-GT9ZLgU</t>
+  </si>
+  <si>
+    <t>HOW DEEP IS YOUR LOVE</t>
+  </si>
+  <si>
+    <t>Bee Gees</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S9vxqIrAM1M</t>
+  </si>
+  <si>
+    <t>LISTEN</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C_zvTrtj0fk</t>
+  </si>
+  <si>
+    <t>25 MINUTES</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fMlyH-A4wzg</t>
+  </si>
+  <si>
+    <t>The Greatest Love Of All</t>
+  </si>
+  <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6o6q4T7emCA</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QgfXiK8TQNY</t>
+  </si>
+  <si>
+    <t>INSPECTOR MILLS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0W64Oy79HY</t>
+  </si>
+  <si>
+    <t>Better Man</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tbfNE6hjR7Q</t>
+  </si>
+  <si>
+    <t>A MAN WITHOUT LOVE</t>
+  </si>
+  <si>
+    <t>Engelbert Humperdinck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tUkyQWWV4bk</t>
+  </si>
+  <si>
+    <t>All By Myself</t>
+  </si>
+  <si>
+    <t>Eric Carmen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=huNAqhAIyng</t>
+  </si>
+  <si>
+    <t>PAINT MY LOVE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5daPd5DtuHg</t>
+  </si>
+  <si>
+    <t>SLEEPING CHILD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VqTnq2u5ZQ4</t>
+  </si>
+  <si>
+    <t>THAT'S WHY YOU GO AWAY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-FMRWINfzTY</t>
+  </si>
+  <si>
+    <t>It Will Rain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fsbSMpskbOs</t>
+  </si>
+  <si>
+    <t>Fly Me To The Moon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8VHUkBPZ6zA</t>
+  </si>
+  <si>
+    <t>THAT WONDERFUL SOUND</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZgR1aEGdEao</t>
+  </si>
+  <si>
+    <t>DELILAH</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qMgjT6ZIT9M</t>
+  </si>
+  <si>
+    <t>GREEN, GREEN GRASS OF HOME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UZyhw7bYmrw</t>
+  </si>
+  <si>
+    <t>THE WAY IT USED TO BE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2lnFQWakxHM</t>
+  </si>
+  <si>
+    <t>RELEASE ME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NwtZBRdr138</t>
+  </si>
+  <si>
+    <t>THANK YOU FOR LOVING ME</t>
+  </si>
+  <si>
+    <t>Bon Jovi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eDasI4SAugI</t>
+  </si>
+  <si>
+    <t>NEVER SAY GOODBYE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N2G8Z9Bx2N0</t>
+  </si>
+  <si>
+    <t>I'LL BE THERE FOR YOU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DxlV1lYmq6Q</t>
+  </si>
+  <si>
+    <t>BED OF ROSES</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9F0mAiipcwM</t>
+  </si>
+  <si>
+    <t>NEVER THOUGHT</t>
+  </si>
+  <si>
+    <t>Dan Hill</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zNxtIn0AcAs</t>
+  </si>
+  <si>
+    <t>I FALL ALL OVER AGAIN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XCUfT_47ADg</t>
+  </si>
+  <si>
+    <t>PANGAKO</t>
+  </si>
+  <si>
+    <t>Rey Valera</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FhIN9flqqR4</t>
+  </si>
+  <si>
+    <t>WALANG KAPALIT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D3lFz_giJ4s</t>
+  </si>
+  <si>
+    <t>MAGING SINO KA MAN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EIe03DLVvcU</t>
+  </si>
+  <si>
+    <t>LAKLAK</t>
+  </si>
+  <si>
+    <t>Teeth</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5jZ_o03npqI</t>
+  </si>
+  <si>
+    <t>Minsan</t>
+  </si>
+  <si>
+    <t>ERASERHEADS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jESET6PUJDw</t>
+  </si>
+  <si>
+    <t>I CAN'T TELL YOU WHY</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YnoZ7PE_AUI</t>
+  </si>
+  <si>
+    <t>BE MY LADY</t>
+  </si>
+  <si>
+    <t>Martin Nievera</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UclCZ6Si7kY</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>Marco Sison</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mHWYJUc-8us</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zVkP4Qd1S10</t>
+  </si>
+  <si>
+    <t>The Show Must Go On</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jzA01fX69wM</t>
+  </si>
+  <si>
+    <t>Careless Whisper</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JeWRnfwtVnI</t>
+  </si>
+  <si>
+    <t>CHERISH</t>
+  </si>
+  <si>
+    <t>KOOL &amp; THE GANG</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UeR17Y-NWEY</t>
+  </si>
+  <si>
+    <t>BABY COME BACK</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2DWQ7G0T4nA</t>
+  </si>
+  <si>
+    <t>LOVE WILL KEEP US ALIVE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4C6GaF7z6rU</t>
+  </si>
+  <si>
+    <t>NEW KID IN TOWN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6P416vTZA6c</t>
+  </si>
+  <si>
+    <t>Tequila Sunrise</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=znnjXneJ95Y</t>
+  </si>
+  <si>
+    <t>DESPERADO</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QNkM8K0e3hQ</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>The Commodores</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LX2r-TR2PfI</t>
+  </si>
+  <si>
+    <t>TRULY</t>
+  </si>
+  <si>
+    <t>Lionel Richie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jXveNm55i_w</t>
+  </si>
+  <si>
+    <t>HELLO</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d1EQoqZ2ehY</t>
+  </si>
+  <si>
+    <t>STITCHES AND BURNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fra Lippo Lippi </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jbR_ETkUUgI</t>
+  </si>
+  <si>
+    <t>Here I Am</t>
+  </si>
+  <si>
+    <t>Air Supply</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bvREG3Dkh_E</t>
+  </si>
+  <si>
+    <t>HAVING YOU NEAR ME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gRj18Tk0j_Q</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Bryan Adams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZhX527lpXus</t>
+  </si>
+  <si>
+    <t>PLEASE FORGIVE ME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EovvtokmmGs</t>
+  </si>
+  <si>
+    <t>STRAIGHT FROM THE HEART</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kBySEwPoUoU</t>
+  </si>
+  <si>
+    <t>I WON'T HOLD YOU BACK</t>
+  </si>
+  <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9Bl8lqIzo0w</t>
+  </si>
+  <si>
+    <t>I'll Be Over You</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YDKBw0b9M2I</t>
+  </si>
+  <si>
+    <t>AKO SI SUPERMAN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lyEkC3k_6V0</t>
+  </si>
+  <si>
+    <t>Through The Years</t>
+  </si>
+  <si>
+    <t>Kenny Rogers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Uvjjz-z2dGo</t>
+  </si>
+  <si>
+    <t>In Your Eyes</t>
+  </si>
+  <si>
+    <t>Pinoy Videoke Tambayan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oWHg93AqKnI</t>
+  </si>
+  <si>
+    <t>Boulevard</t>
+  </si>
+  <si>
+    <t>Dan Byrd</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SGbq5dILMnI</t>
+  </si>
+  <si>
+    <t>WORDS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A7Lhy0gULK8</t>
+  </si>
+  <si>
+    <t>BEE GEES</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pamtZb6qFy8</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kcLkrMn2JEQ</t>
+  </si>
+  <si>
+    <t>NOSI BA LASI</t>
+  </si>
+  <si>
+    <t>Sampaguita</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8846-5w-MlA</t>
+  </si>
+  <si>
+    <t>Multo</t>
+  </si>
+  <si>
+    <t>Cup of Joe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4LYdhuheGbg</t>
+  </si>
+  <si>
+    <t>Marilag</t>
+  </si>
+  <si>
+    <t>Dionela</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8mu1f4j3Rfo</t>
+  </si>
+  <si>
+    <t>WHEN THE SMOKE IS GOING DOWN</t>
+  </si>
+  <si>
+    <t>Scorpions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cX5F8LQ84bU</t>
+  </si>
+  <si>
+    <t>STILL LOVING YOU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u4yRckWcFNg</t>
+  </si>
+  <si>
+    <t>OUT OF THE BLUE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QRa19qdlq0k</t>
+  </si>
+  <si>
+    <t>SOLDIER OF FORTUNE</t>
+  </si>
+  <si>
+    <t>Deep Purple</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IPI2zPSaddo</t>
+  </si>
+  <si>
+    <t>EVEN NOW</t>
+  </si>
+  <si>
+    <t>Barry Manilow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RO4LNLy4ud8</t>
+  </si>
+  <si>
+    <t>HONESTY</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uZXpd4l9Lxw</t>
+  </si>
+  <si>
+    <t>NATUTULOG BA ANG DIYOS</t>
+  </si>
+  <si>
+    <t>Gary Valenciano</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nF0qxXx8r5Q</t>
+  </si>
+  <si>
+    <t>Di Na Natuto</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RmhQeHJwabY</t>
+  </si>
+  <si>
+    <t>Achy Breaky Heart</t>
+  </si>
+  <si>
+    <t>Billy Ray Cyrus</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UBHOG4f1Blo</t>
+  </si>
+  <si>
+    <t>FAITHFULLY</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Kz2BS8Nk3Ho</t>
+  </si>
+  <si>
+    <t>AFTER ALL THESE YEARS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cd8Lbf0PnaQ</t>
+  </si>
+  <si>
+    <t>OPEN ARMS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8XsRCvIReiM</t>
+  </si>
+  <si>
+    <t>All For Love</t>
+  </si>
+  <si>
+    <t>Bryan Adams, Sting and Rod Stewart</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YEhHRB2YB4w</t>
+  </si>
+  <si>
+    <t>LOVE ME WITH ALL OF YOUR HEART</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T843m6-nLgk</t>
+  </si>
+  <si>
+    <t>If I Sing You a Love Song</t>
+  </si>
+  <si>
+    <t>Bonnie Tyler</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a3fckaE66mw</t>
+  </si>
+  <si>
+    <t>All Night Long</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XKzTO5CNzfo</t>
+  </si>
+  <si>
+    <t>Always On My Mind</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OPwByigx8x4</t>
+  </si>
+  <si>
+    <t>Baby One More Time</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VcDrr50sF3I</t>
+  </si>
+  <si>
+    <t>LAY ME DOWN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Px15FPFPR7w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN YOU FEEL THE LOVE TONIGHT </t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8SdNqJ0M6kE</t>
+  </si>
+  <si>
+    <t>SKYLINE PIGEON</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r2Z3FJT8teg</t>
+  </si>
+  <si>
+    <t>Chasing Pavements</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YEj-kAKCJ_Y</t>
+  </si>
+  <si>
+    <t>ALL I ASK</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y7YaEKYjOTs</t>
+  </si>
+  <si>
+    <t>Someone Like You</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rMSQwIp4Jg8</t>
+  </si>
+  <si>
+    <t>When We Were Young</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mj1ADaIGot4</t>
+  </si>
+  <si>
+    <t>Always Remember Us This Way</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xpff0rr6dgc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +897,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,71 +1238,1509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Title of Song</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name of Artist</v>
-      </c>
-      <c r="C1" t="str">
-        <v>YouTube URL</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Group</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Bohemian Rhapsody</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Queen</v>
-      </c>
-      <c r="C2" t="str">
-        <v>https://www.youtube.com/watch?v=irp8CNj9qBI</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Favorites 1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Let It Go</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Idina Menzel</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://www.youtube.com/watch?v=moSFlvxnbgk</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Favorites 1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Don't Stop Believin'</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Journey</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://www.youtube.com/watch?v=VFEZOjtrwls</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Favorites 2</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
+      <c r="A68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75">
+      <c r="A72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75">
+      <c r="A79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
+      <c r="A83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
+      <c r="A85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
+      <c r="A89" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
+      <c r="A95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
+      <c r="A96" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" t="s">
+        <v>249</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
+      <c r="A97" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
+      <c r="A98" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" t="s">
+        <v>257</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:D64 C106 C105 C104 C103 C102 C101 C100 C99 C98 C97 C96 C95 C94 C93 C92 C91 C90 C89 C88 C87 C86 C85 C84 C83 C82 C81 C80 C79 C78 C77 C76 C75 C74 B73:C73 C67 B66:C66 C68 C69 C70 C71 C72 A65:C65" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>